--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>535.3541542421386</v>
+        <v>597.755718615052</v>
       </c>
       <c r="AB2" t="n">
-        <v>732.4951719924943</v>
+        <v>817.8757453302399</v>
       </c>
       <c r="AC2" t="n">
-        <v>662.5868608409605</v>
+        <v>739.8188320917392</v>
       </c>
       <c r="AD2" t="n">
-        <v>535354.1542421386</v>
+        <v>597755.7186150521</v>
       </c>
       <c r="AE2" t="n">
-        <v>732495.1719924943</v>
+        <v>817875.7453302399</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.908028262720145e-06</v>
+        <v>3.22561644724236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.61848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>662586.8608409605</v>
+        <v>739818.8320917392</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>267.271007223099</v>
+        <v>308.8436031868507</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.6919832473052</v>
+        <v>422.5734430984032</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.7908536181037</v>
+        <v>382.2436267746432</v>
       </c>
       <c r="AD3" t="n">
-        <v>267271.0072230991</v>
+        <v>308843.6031868507</v>
       </c>
       <c r="AE3" t="n">
-        <v>365691.9832473053</v>
+        <v>422573.4430984032</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.962597612271135e-06</v>
+        <v>5.008418256383212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.838107638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>330790.8536181037</v>
+        <v>382243.6267746432</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.8608640435272</v>
+        <v>258.0190653112488</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.401042579174</v>
+        <v>353.0330681564745</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.7768027261089</v>
+        <v>319.3400876167491</v>
       </c>
       <c r="AD4" t="n">
-        <v>226860.8640435272</v>
+        <v>258019.0653112488</v>
       </c>
       <c r="AE4" t="n">
-        <v>310401.042579174</v>
+        <v>353033.0681564745</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.358376228716169e-06</v>
+        <v>5.677501644514959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.032986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>280776.8027261089</v>
+        <v>319340.0876167491</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>196.1104447402925</v>
+        <v>227.3538973540345</v>
       </c>
       <c r="AB5" t="n">
-        <v>268.3269622757546</v>
+        <v>311.0756325057043</v>
       </c>
       <c r="AC5" t="n">
-        <v>242.7182135954919</v>
+        <v>281.3870107368443</v>
       </c>
       <c r="AD5" t="n">
-        <v>196110.4447402925</v>
+        <v>227353.8973540345</v>
       </c>
       <c r="AE5" t="n">
-        <v>268326.9622757545</v>
+        <v>311075.6325057043</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.581987879196436e-06</v>
+        <v>6.055528234412466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.657552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>242718.2135954919</v>
+        <v>281387.0107368443</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>183.0733332587128</v>
+        <v>214.1461936718626</v>
       </c>
       <c r="AB6" t="n">
-        <v>250.4890111899001</v>
+        <v>293.004269645003</v>
       </c>
       <c r="AC6" t="n">
-        <v>226.5826915255441</v>
+        <v>265.0403533842455</v>
       </c>
       <c r="AD6" t="n">
-        <v>183073.3332587128</v>
+        <v>214146.1936718626</v>
       </c>
       <c r="AE6" t="n">
-        <v>250489.0111899001</v>
+        <v>293004.269645003</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.722130295635218e-06</v>
+        <v>6.29244594273654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>226582.6915255441</v>
+        <v>265040.3533842455</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>176.0122220851513</v>
+        <v>207.0850824983011</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.8276873679987</v>
+        <v>283.3429458231016</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.8434308894488</v>
+        <v>256.3010927481502</v>
       </c>
       <c r="AD7" t="n">
-        <v>176012.2220851513</v>
+        <v>207085.0824983011</v>
       </c>
       <c r="AE7" t="n">
-        <v>240827.6873679987</v>
+        <v>283342.9458231016</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.791501258602582e-06</v>
+        <v>6.409720997556517e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.345052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>217843.4308894488</v>
+        <v>256301.0927481502</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.6768517386544</v>
+        <v>428.0443501033834</v>
       </c>
       <c r="AB2" t="n">
-        <v>516.7541304755867</v>
+        <v>585.6691637954119</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.4358415319733</v>
+        <v>529.773720794611</v>
       </c>
       <c r="AD2" t="n">
-        <v>377676.8517386544</v>
+        <v>428044.3501033834</v>
       </c>
       <c r="AE2" t="n">
-        <v>516754.1304755868</v>
+        <v>585669.1637954119</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.336508430277215e-06</v>
+        <v>4.046344288462523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.971354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>467435.8415319733</v>
+        <v>529773.720794611</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.3678919366561</v>
+        <v>251.5543441222156</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.8853158097303</v>
+        <v>344.1877514222735</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.9783663711498</v>
+        <v>311.3389554971774</v>
       </c>
       <c r="AD3" t="n">
-        <v>221367.8919366561</v>
+        <v>251554.3441222156</v>
       </c>
       <c r="AE3" t="n">
-        <v>302885.3158097303</v>
+        <v>344187.7514222735</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.327672479365918e-06</v>
+        <v>5.762833275614869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.297743055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>273978.3663711498</v>
+        <v>311338.9554971774</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.1008228904357</v>
+        <v>211.3725264220157</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.790135483009</v>
+        <v>289.2092157482014</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.141392728222</v>
+        <v>261.6074941049619</v>
       </c>
       <c r="AD4" t="n">
-        <v>181100.8228904357</v>
+        <v>211372.5264220157</v>
       </c>
       <c r="AE4" t="n">
-        <v>247790.135483009</v>
+        <v>289209.2157482014</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.697789477622388e-06</v>
+        <v>6.403798564912061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.668402777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>224141.392728222</v>
+        <v>261607.4941049619</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.8951043805216</v>
+        <v>195.9962157115094</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.985000588799</v>
+        <v>268.1706690791445</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.3218707081186</v>
+        <v>242.5768368022074</v>
       </c>
       <c r="AD5" t="n">
-        <v>165895.1043805216</v>
+        <v>195996.2157115094</v>
       </c>
       <c r="AE5" t="n">
-        <v>226985.000588799</v>
+        <v>268170.6690791445</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.884586522149532e-06</v>
+        <v>6.727292006848587e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.394965277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>205321.8707081185</v>
+        <v>242576.8368022074</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.549185040979</v>
+        <v>194.6502963719668</v>
       </c>
       <c r="AB6" t="n">
-        <v>225.1434543706672</v>
+        <v>266.3291228610128</v>
       </c>
       <c r="AC6" t="n">
-        <v>203.6560790764183</v>
+        <v>240.9110451705072</v>
       </c>
       <c r="AD6" t="n">
-        <v>164549.185040979</v>
+        <v>194650.2963719668</v>
       </c>
       <c r="AE6" t="n">
-        <v>225143.4543706672</v>
+        <v>266329.1228610128</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.904096864959502e-06</v>
+        <v>6.761079843079808e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.368923611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>203656.0790764183</v>
+        <v>240911.0451705072</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.2622353334794</v>
+        <v>190.5230808256045</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.382593004653</v>
+        <v>260.6820844705833</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.0632718477915</v>
+        <v>235.8029521983904</v>
       </c>
       <c r="AD2" t="n">
-        <v>163262.2353334794</v>
+        <v>190523.0808256045</v>
       </c>
       <c r="AE2" t="n">
-        <v>223382.5930046531</v>
+        <v>260682.0844705833</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.767408918850625e-06</v>
+        <v>7.128748382134043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.208767361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>202063.2718477915</v>
+        <v>235802.9521983904</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.9629163701979</v>
+        <v>164.3090132083437</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.3987045550426</v>
+        <v>224.8148406736222</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.5136352080959</v>
+        <v>203.358827809407</v>
       </c>
       <c r="AD3" t="n">
-        <v>136962.9163701979</v>
+        <v>164309.0132083436</v>
       </c>
       <c r="AE3" t="n">
-        <v>187398.7045550426</v>
+        <v>224814.8406736222</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.09192168503266e-06</v>
+        <v>7.742796367561598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>169513.6352080959</v>
+        <v>203358.827809407</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.9578918933841</v>
+        <v>255.4478737388522</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.5338003639148</v>
+        <v>349.5150504141569</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.8968902942008</v>
+        <v>316.1578245501883</v>
       </c>
       <c r="AD2" t="n">
-        <v>226957.8918933841</v>
+        <v>255447.8737388522</v>
       </c>
       <c r="AE2" t="n">
-        <v>310533.8003639148</v>
+        <v>349515.0504141569</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.185345475981926e-06</v>
+        <v>5.803007680535864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.024739583333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>280896.8902942009</v>
+        <v>316157.8245501883</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.990307092227</v>
+        <v>177.480199429144</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.8551111519446</v>
+        <v>242.8362387326383</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.3994654561065</v>
+        <v>219.6602889308673</v>
       </c>
       <c r="AD3" t="n">
-        <v>148990.307092227</v>
+        <v>177480.199429144</v>
       </c>
       <c r="AE3" t="n">
-        <v>203855.1111519446</v>
+        <v>242836.2387326383</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.007406700815352e-06</v>
+        <v>7.300624701216656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.583767361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>184399.4654561065</v>
+        <v>219660.2889308673</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.2043178309185</v>
+        <v>174.6942101678355</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.0431977354526</v>
+        <v>239.0243253161462</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.9513557060291</v>
+        <v>216.21217918079</v>
       </c>
       <c r="AD4" t="n">
-        <v>146204.3178309185</v>
+        <v>174694.2101678355</v>
       </c>
       <c r="AE4" t="n">
-        <v>200043.1977354526</v>
+        <v>239024.3253161462</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.06143405335677e-06</v>
+        <v>7.399050804168712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.509982638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>180951.3557060291</v>
+        <v>216212.17918079</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.027698085101</v>
+        <v>165.3503966402821</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.223829989112</v>
+        <v>226.2397074277942</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.069134635827</v>
+        <v>204.6477072803743</v>
       </c>
       <c r="AD2" t="n">
-        <v>139027.698085101</v>
+        <v>165350.3966402821</v>
       </c>
       <c r="AE2" t="n">
-        <v>190223.829989112</v>
+        <v>226239.7074277942</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.046532505254278e-06</v>
+        <v>7.929899915632752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.002604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>172069.134635827</v>
+        <v>204647.7072803743</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.8717403704505</v>
+        <v>166.1944389256315</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.3786858804442</v>
+        <v>227.3945633191263</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.1137727017412</v>
+        <v>205.6923453462885</v>
       </c>
       <c r="AD3" t="n">
-        <v>139871.7403704505</v>
+        <v>166194.4389256315</v>
       </c>
       <c r="AE3" t="n">
-        <v>191378.6858804442</v>
+        <v>227394.5633191263</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.047875715402353e-06</v>
+        <v>7.932532174740041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.000434027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>173113.7727017412</v>
+        <v>205692.3453462885</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.0076348313071</v>
+        <v>469.7155750807955</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.3047312884163</v>
+        <v>642.6855722142051</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.5893323724931</v>
+        <v>581.3485632169463</v>
       </c>
       <c r="AD2" t="n">
-        <v>419007.6348313072</v>
+        <v>469715.5750807954</v>
       </c>
       <c r="AE2" t="n">
-        <v>573304.7312884163</v>
+        <v>642685.5722142051</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.217982864604531e-06</v>
+        <v>3.815997836641808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.364149305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>518589.3323724931</v>
+        <v>581348.5632169463</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.1219875641357</v>
+        <v>262.5638556881663</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.5995438844556</v>
+        <v>359.2514508523408</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.2882891699767</v>
+        <v>324.9649965955706</v>
       </c>
       <c r="AD3" t="n">
-        <v>232121.9875641357</v>
+        <v>262563.8556881663</v>
       </c>
       <c r="AE3" t="n">
-        <v>317599.5438844556</v>
+        <v>359251.4508523408</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.233840457477303e-06</v>
+        <v>5.563761734461568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>287288.2891699767</v>
+        <v>324964.9965955706</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.7261887844796</v>
+        <v>220.2533082545274</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.5917416235211</v>
+        <v>301.360293243881</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.8166701423457</v>
+        <v>272.598889818602</v>
       </c>
       <c r="AD4" t="n">
-        <v>189726.1887844796</v>
+        <v>220253.3082545274</v>
       </c>
       <c r="AE4" t="n">
-        <v>259591.7416235211</v>
+        <v>301360.293243881</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.60723727928044e-06</v>
+        <v>6.20618394923542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.759548611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>234816.6701423457</v>
+        <v>272598.889818602</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.5152344768731</v>
+        <v>202.8717617463288</v>
       </c>
       <c r="AB5" t="n">
-        <v>236.04295464615</v>
+        <v>277.578094491663</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.5153463431572</v>
+        <v>251.0864307367626</v>
       </c>
       <c r="AD5" t="n">
-        <v>172515.2344768731</v>
+        <v>202871.7617463288</v>
       </c>
       <c r="AE5" t="n">
-        <v>236042.95464615</v>
+        <v>277578.094491663</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.813988659720013e-06</v>
+        <v>6.561895813862828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.447048611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>213515.3463431572</v>
+        <v>251086.4307367626</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.2718219700677</v>
+        <v>197.6283492395233</v>
       </c>
       <c r="AB6" t="n">
-        <v>228.8686863313085</v>
+        <v>270.4038261768216</v>
       </c>
       <c r="AC6" t="n">
-        <v>207.0257801271331</v>
+        <v>244.5968645207385</v>
       </c>
       <c r="AD6" t="n">
-        <v>167271.8219700677</v>
+        <v>197628.3492395233</v>
       </c>
       <c r="AE6" t="n">
-        <v>228868.6863313085</v>
+        <v>270403.8261768216</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.87438686391324e-06</v>
+        <v>6.665809789131297e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.362413194444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>207025.7801271331</v>
+        <v>244596.8645207385</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.0922899920845</v>
+        <v>161.8594650948274</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.2074751351835</v>
+        <v>221.4632608782752</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.4360950521667</v>
+        <v>200.327118085755</v>
       </c>
       <c r="AD2" t="n">
-        <v>136092.2899920845</v>
+        <v>161859.4650948274</v>
       </c>
       <c r="AE2" t="n">
-        <v>186207.4751351835</v>
+        <v>221463.2608782751</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.966342308687747e-06</v>
+        <v>7.951169266282809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.267361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>168436.0950521667</v>
+        <v>200327.118085755</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.4641607914348</v>
+        <v>339.3647378038663</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.4258791692231</v>
+        <v>464.3338059788321</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.4961110520363</v>
+        <v>420.0184392328013</v>
       </c>
       <c r="AD2" t="n">
-        <v>290464.1607914348</v>
+        <v>339364.7378038663</v>
       </c>
       <c r="AE2" t="n">
-        <v>397425.8791692231</v>
+        <v>464333.8059788321</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.720098194178644e-06</v>
+        <v>4.817496023954535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.938368055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>359496.1110520363</v>
+        <v>420018.4392328013</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.7677081607225</v>
+        <v>209.210463393667</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.9661090969453</v>
+        <v>286.2509857293271</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.4914488604065</v>
+        <v>258.9315934071861</v>
       </c>
       <c r="AD3" t="n">
-        <v>179767.7081607225</v>
+        <v>209210.463393667</v>
       </c>
       <c r="AE3" t="n">
-        <v>245966.1090969453</v>
+        <v>286250.9857293271</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.642388018706619e-06</v>
+        <v>6.450939835691222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.928819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>222491.4488604065</v>
+        <v>258931.5934071861</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.7794302058591</v>
+        <v>186.0515932382113</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.5125330278701</v>
+        <v>254.5639978854051</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.0397579459826</v>
+        <v>230.2687672101112</v>
       </c>
       <c r="AD4" t="n">
-        <v>156779.4302058591</v>
+        <v>186051.5932382113</v>
       </c>
       <c r="AE4" t="n">
-        <v>214512.5330278701</v>
+        <v>254563.9978854051</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.962124445789958e-06</v>
+        <v>7.017216806678487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>194039.7579459826</v>
+        <v>230268.7672101112</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.8953236521851</v>
+        <v>185.1674866845374</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.3028594371057</v>
+        <v>253.3543242946407</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.9455339049327</v>
+        <v>229.1745431690614</v>
       </c>
       <c r="AD5" t="n">
-        <v>155895.3236521851</v>
+        <v>185167.4866845374</v>
       </c>
       <c r="AE5" t="n">
-        <v>213302.8594371057</v>
+        <v>253354.3242946407</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.979439770505955e-06</v>
+        <v>7.047883533398619e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.427517361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>192945.5339049327</v>
+        <v>229174.5431690614</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.1441261358014</v>
+        <v>400.069743750358</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.0826406476361</v>
+        <v>547.3930732306724</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.3596658209341</v>
+        <v>495.1506465925398</v>
       </c>
       <c r="AD2" t="n">
-        <v>350144.1261358014</v>
+        <v>400069.743750358</v>
       </c>
       <c r="AE2" t="n">
-        <v>479082.6406476361</v>
+        <v>547393.0732306724</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.456497315177108e-06</v>
+        <v>4.283916818277809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.61328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>433359.6658209341</v>
+        <v>495150.6465925399</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.9087698797321</v>
+        <v>240.830093615188</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.5746835875546</v>
+        <v>329.5143587580246</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.0335208031555</v>
+        <v>298.0659708345638</v>
       </c>
       <c r="AD3" t="n">
-        <v>210908.7698797321</v>
+        <v>240830.093615188</v>
       </c>
       <c r="AE3" t="n">
-        <v>288574.6835875546</v>
+        <v>329514.3587580246</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.425582288406658e-06</v>
+        <v>5.973916391861326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.176215277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>261033.5208031555</v>
+        <v>298065.9708345638</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.8251518055302</v>
+        <v>202.8317268870067</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.4669972078059</v>
+        <v>277.5233170309252</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.8989188778763</v>
+        <v>251.0368811599969</v>
       </c>
       <c r="AD4" t="n">
-        <v>172825.1518055302</v>
+        <v>202831.7268870067</v>
       </c>
       <c r="AE4" t="n">
-        <v>236466.9972078059</v>
+        <v>277523.3170309252</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.783614285760407e-06</v>
+        <v>6.598292932177118e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.592447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>213898.9188778763</v>
+        <v>251036.8811599969</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.3766461189472</v>
+        <v>191.2126289998315</v>
       </c>
       <c r="AB5" t="n">
-        <v>220.8026466550062</v>
+        <v>261.6255547032787</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.7295519567768</v>
+        <v>236.6563789562464</v>
       </c>
       <c r="AD5" t="n">
-        <v>161376.6461189472</v>
+        <v>191212.6289998315</v>
       </c>
       <c r="AE5" t="n">
-        <v>220802.6466550062</v>
+        <v>261625.5547032787</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.926164062484584e-06</v>
+        <v>6.846887295450999e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.388454861111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>199729.5519567768</v>
+        <v>236656.3789562464</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.9393668759951</v>
+        <v>191.7753497568795</v>
       </c>
       <c r="AB6" t="n">
-        <v>221.5725860202866</v>
+        <v>262.395494068559</v>
       </c>
       <c r="AC6" t="n">
-        <v>200.4260093896517</v>
+        <v>237.3528363891213</v>
       </c>
       <c r="AD6" t="n">
-        <v>161939.3668759952</v>
+        <v>191775.3497568795</v>
       </c>
       <c r="AE6" t="n">
-        <v>221572.5860202866</v>
+        <v>262395.494068559</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.924896520010293e-06</v>
+        <v>6.844676812056636e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>200426.0093896517</v>
+        <v>237352.8363891213</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>497.2594517877347</v>
+        <v>548.8613270609609</v>
       </c>
       <c r="AB2" t="n">
-        <v>680.3723194747186</v>
+        <v>750.9762817376155</v>
       </c>
       <c r="AC2" t="n">
-        <v>615.4385402125986</v>
+        <v>679.3041594104079</v>
       </c>
       <c r="AD2" t="n">
-        <v>497259.4517877348</v>
+        <v>548861.3270609609</v>
       </c>
       <c r="AE2" t="n">
-        <v>680372.3194747185</v>
+        <v>750976.2817376155</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.005629463491877e-06</v>
+        <v>3.409437162078209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>615438.5402125986</v>
+        <v>679304.1594104079</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.0308219508127</v>
+        <v>296.2951823916416</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.9444217587351</v>
+        <v>405.4041401691435</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.6416558927573</v>
+        <v>366.712938019684</v>
       </c>
       <c r="AD3" t="n">
-        <v>255030.8219508126</v>
+        <v>296295.1823916416</v>
       </c>
       <c r="AE3" t="n">
-        <v>348944.4217587351</v>
+        <v>405404.1401691435</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.049524260031312e-06</v>
+        <v>5.183989130628322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.697048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>315641.6558927573</v>
+        <v>366712.9380196841</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.9987108842955</v>
+        <v>238.0109868558432</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.2247683703725</v>
+        <v>325.6571325196784</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.1941939856464</v>
+        <v>294.5768728547532</v>
       </c>
       <c r="AD4" t="n">
-        <v>206998.7108842955</v>
+        <v>238010.9868558432</v>
       </c>
       <c r="AE4" t="n">
-        <v>283224.7683703725</v>
+        <v>325657.1325196784</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.445078698352196e-06</v>
+        <v>5.856405459858049e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.928819444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>256194.1939856464</v>
+        <v>294576.8728547532</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>188.1239199933718</v>
+        <v>219.1361959649195</v>
       </c>
       <c r="AB5" t="n">
-        <v>257.3994467764183</v>
+        <v>299.8318109257241</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.8336048385445</v>
+        <v>271.2162837076512</v>
       </c>
       <c r="AD5" t="n">
-        <v>188123.9199933718</v>
+        <v>219136.1959649195</v>
       </c>
       <c r="AE5" t="n">
-        <v>257399.4467764183</v>
+        <v>299831.8109257242</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.663419478010643e-06</v>
+        <v>6.227570314441197e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.575086805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>232833.6048385445</v>
+        <v>271216.2837076512</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.0103738211235</v>
+        <v>206.852057592079</v>
       </c>
       <c r="AB6" t="n">
-        <v>240.8251584916163</v>
+        <v>283.0241108660753</v>
       </c>
       <c r="AC6" t="n">
-        <v>217.841143365479</v>
+        <v>256.0126869519347</v>
       </c>
       <c r="AD6" t="n">
-        <v>176010.3738211235</v>
+        <v>206852.057592079</v>
       </c>
       <c r="AE6" t="n">
-        <v>240825.1584916163</v>
+        <v>283024.1108660753</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.788494864289124e-06</v>
+        <v>6.440190181570938e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>217841.143365479</v>
+        <v>256012.6869519347</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>173.4967631624046</v>
+        <v>204.3384469333601</v>
       </c>
       <c r="AB7" t="n">
-        <v>237.385925495683</v>
+        <v>279.584877870142</v>
       </c>
       <c r="AC7" t="n">
-        <v>214.7301459396826</v>
+        <v>252.9016895261383</v>
       </c>
       <c r="AD7" t="n">
-        <v>173496.7631624046</v>
+        <v>204338.4469333601</v>
       </c>
       <c r="AE7" t="n">
-        <v>237385.925495683</v>
+        <v>279584.877870142</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.811834740735371e-06</v>
+        <v>6.479866424647069e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>214730.1459396826</v>
+        <v>252901.6895261383</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.3457745308878</v>
+        <v>285.6077677749146</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.4294008384353</v>
+        <v>390.7811479950814</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.1301738111632</v>
+        <v>353.4855436952159</v>
       </c>
       <c r="AD2" t="n">
-        <v>247345.7745308878</v>
+        <v>285607.7677749146</v>
       </c>
       <c r="AE2" t="n">
-        <v>338429.4008384353</v>
+        <v>390781.1479950814</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.015461552471569e-06</v>
+        <v>5.437590757754528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>306130.1738111632</v>
+        <v>353485.5436952159</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.1615362837818</v>
+        <v>187.9859753672434</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.7718356547855</v>
+        <v>257.2107048532621</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.9879973046462</v>
+        <v>232.6628761796333</v>
       </c>
       <c r="AD3" t="n">
-        <v>159161.5362837818</v>
+        <v>187985.9753672434</v>
       </c>
       <c r="AE3" t="n">
-        <v>217771.8356547855</v>
+        <v>257210.7048532621</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.882316387793949e-06</v>
+        <v>7.000735158319138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.692274305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>196987.9973046462</v>
+        <v>232662.8761796333</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.2317522096544</v>
+        <v>177.8855990925237</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.1854670134153</v>
+        <v>243.3909244370451</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.698292617816</v>
+        <v>220.162036210152</v>
       </c>
       <c r="AD4" t="n">
-        <v>149231.7522096544</v>
+        <v>177885.5990925237</v>
       </c>
       <c r="AE4" t="n">
-        <v>204185.4670134154</v>
+        <v>243390.9244370451</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.037177346746891e-06</v>
+        <v>7.279986113599708e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.473090277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>184698.292617816</v>
+        <v>220162.036210152</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.7359725609186</v>
+        <v>208.4058827133264</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.2909311661035</v>
+        <v>285.1501229468914</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.6898317706841</v>
+        <v>257.935795423635</v>
       </c>
       <c r="AD2" t="n">
-        <v>180735.9725609186</v>
+        <v>208405.8827133264</v>
       </c>
       <c r="AE2" t="n">
-        <v>247290.9311661035</v>
+        <v>285150.1229468914</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.55653942081376e-06</v>
+        <v>6.635365737240594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.471354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>223689.8317706841</v>
+        <v>257935.795423635</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.8949238062261</v>
+        <v>167.6500853046545</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.4104064800534</v>
+        <v>229.3862429134905</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.1424659318438</v>
+        <v>207.493941835507</v>
       </c>
       <c r="AD3" t="n">
-        <v>139894.9238062261</v>
+        <v>167650.0853046545</v>
       </c>
       <c r="AE3" t="n">
-        <v>191410.4064800534</v>
+        <v>229386.2429134905</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.092130882467887e-06</v>
+        <v>7.634608206766001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>173142.4659318438</v>
+        <v>207493.941835507</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.666877627619</v>
+        <v>173.3634865044461</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.3618954040246</v>
+        <v>237.203570492513</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.3849004742981</v>
+        <v>214.5651946420783</v>
       </c>
       <c r="AD2" t="n">
-        <v>137666.877627619</v>
+        <v>173363.4865044461</v>
       </c>
       <c r="AE2" t="n">
-        <v>188361.8954040245</v>
+        <v>237203.570492513</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.990986998236695e-06</v>
+        <v>7.674815997805567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.965711805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>170384.9004742981</v>
+        <v>214565.1946420783</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.8320898713085</v>
+        <v>160.7325578107862</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.1149696169473</v>
+        <v>219.9213766166101</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.6387339202312</v>
+        <v>198.9323890939746</v>
       </c>
       <c r="AD3" t="n">
-        <v>133832.0898713084</v>
+        <v>160732.5578107862</v>
       </c>
       <c r="AE3" t="n">
-        <v>183114.9696169473</v>
+        <v>219921.3766166101</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.084680895383082e-06</v>
+        <v>7.8549928365258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.828993055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>165638.7339202312</v>
+        <v>198932.3890939746</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.3438653901112</v>
+        <v>166.8667915359497</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.4469593428296</v>
+        <v>228.3145058226669</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.0344776091168</v>
+        <v>206.5244898284389</v>
       </c>
       <c r="AD2" t="n">
-        <v>133343.8653901112</v>
+        <v>166866.7915359497</v>
       </c>
       <c r="AE2" t="n">
-        <v>182446.9593428297</v>
+        <v>228314.5058226669</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.800165292831915e-06</v>
+        <v>7.838218354061356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.725260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165034.4776091168</v>
+        <v>206524.4898284389</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.5722297183675</v>
+        <v>364.1278822530965</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.0940438168542</v>
+        <v>498.2158326870991</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.7103315648779</v>
+        <v>450.6668128657545</v>
       </c>
       <c r="AD2" t="n">
-        <v>324572.2297183675</v>
+        <v>364127.8822530965</v>
       </c>
       <c r="AE2" t="n">
-        <v>444094.0438168542</v>
+        <v>498215.8326870991</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.583435919903075e-06</v>
+        <v>4.538995000468929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.272569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>401710.3315648779</v>
+        <v>450666.8128657545</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.0287597088195</v>
+        <v>229.6741862733607</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.6881736795469</v>
+        <v>314.2503541690473</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.5677585074154</v>
+        <v>284.2587414203888</v>
       </c>
       <c r="AD3" t="n">
-        <v>200028.7597088195</v>
+        <v>229674.1862733607</v>
       </c>
       <c r="AE3" t="n">
-        <v>273688.1736795469</v>
+        <v>314250.3541690473</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.534720168826751e-06</v>
+        <v>6.210363899780122e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.046006944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>247567.7585074154</v>
+        <v>284258.7414203888</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.9249947685205</v>
+        <v>193.6556726790822</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.2894097025586</v>
+        <v>264.9682348447084</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.8835432327745</v>
+        <v>239.68003839646</v>
       </c>
       <c r="AD4" t="n">
-        <v>163924.9947685206</v>
+        <v>193655.6726790823</v>
       </c>
       <c r="AE4" t="n">
-        <v>224289.4097025586</v>
+        <v>264968.2348447083</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.881653337455955e-06</v>
+        <v>6.819911791319804e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.505642361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>202883.5432327745</v>
+        <v>239680.0383964601</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.1172962644689</v>
+        <v>187.6773819744384</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.343060391744</v>
+        <v>256.788473759047</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.6955823474103</v>
+        <v>232.2809422284448</v>
       </c>
       <c r="AD5" t="n">
-        <v>158117.2962644689</v>
+        <v>187677.3819744384</v>
       </c>
       <c r="AE5" t="n">
-        <v>216343.060391744</v>
+        <v>256788.473759047</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.958957492259794e-06</v>
+        <v>6.955732141833188e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.397135416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>195695.5823474103</v>
+        <v>232280.9422284448</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.3754741313138</v>
+        <v>502.6650079933917</v>
       </c>
       <c r="AB2" t="n">
-        <v>617.5918369869744</v>
+        <v>687.7684399516073</v>
       </c>
       <c r="AC2" t="n">
-        <v>558.6497388605241</v>
+        <v>622.1287853316934</v>
       </c>
       <c r="AD2" t="n">
-        <v>451375.4741313138</v>
+        <v>502665.0079933917</v>
       </c>
       <c r="AE2" t="n">
-        <v>617591.8369869743</v>
+        <v>687768.4399516074</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.109995098220126e-06</v>
+        <v>3.607856475048131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.759114583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>558649.738860524</v>
+        <v>622128.7853316934</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.6908211532168</v>
+        <v>273.5498823250381</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.0602882650597</v>
+        <v>374.2830171661977</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.3689204026828</v>
+        <v>338.5619713173689</v>
       </c>
       <c r="AD3" t="n">
-        <v>242690.8211532168</v>
+        <v>273549.8823250381</v>
       </c>
       <c r="AE3" t="n">
-        <v>332060.2882650597</v>
+        <v>374283.0171661977</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.146535528076588e-06</v>
+        <v>5.380225095554123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.545138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>300368.9204026828</v>
+        <v>338561.9713173689</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.8182636410404</v>
+        <v>229.5919839582866</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.0319195562948</v>
+        <v>314.1378813350529</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.0695749531187</v>
+        <v>284.1570028358141</v>
       </c>
       <c r="AD4" t="n">
-        <v>198818.2636410404</v>
+        <v>229591.9839582866</v>
       </c>
       <c r="AE4" t="n">
-        <v>272031.9195562948</v>
+        <v>314137.8813350529</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.518334979159406e-06</v>
+        <v>6.015960722684258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.852864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>246069.5749531187</v>
+        <v>284157.0028358141</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.9663679506674</v>
+        <v>211.7400882679137</v>
       </c>
       <c r="AB5" t="n">
-        <v>247.6061683026848</v>
+        <v>289.7121300814429</v>
       </c>
       <c r="AC5" t="n">
-        <v>223.9749831173883</v>
+        <v>262.0624110000837</v>
       </c>
       <c r="AD5" t="n">
-        <v>180966.3679506674</v>
+        <v>211740.0882679137</v>
       </c>
       <c r="AE5" t="n">
-        <v>247606.1683026848</v>
+        <v>289712.1300814429</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.72719934665131e-06</v>
+        <v>6.373095514749963e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.525173611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>223974.9831173883</v>
+        <v>262062.4110000837</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>170.9782549627941</v>
+        <v>201.5813830794482</v>
       </c>
       <c r="AB6" t="n">
-        <v>233.9399914682375</v>
+        <v>275.8125414721488</v>
       </c>
       <c r="AC6" t="n">
-        <v>211.6130870194167</v>
+        <v>249.489379619461</v>
       </c>
       <c r="AD6" t="n">
-        <v>170978.2549627941</v>
+        <v>201581.3830794482</v>
       </c>
       <c r="AE6" t="n">
-        <v>233939.9914682375</v>
+        <v>275812.5414721488</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.837088005240872e-06</v>
+        <v>6.560992874682759e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.366753472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>211613.0870194167</v>
+        <v>249489.379619461</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.1910819646513</v>
+        <v>200.7942100813054</v>
       </c>
       <c r="AB7" t="n">
-        <v>232.8629466445574</v>
+        <v>274.7354966484687</v>
       </c>
       <c r="AC7" t="n">
-        <v>210.6388338420664</v>
+        <v>248.5151264421107</v>
       </c>
       <c r="AD7" t="n">
-        <v>170191.0819646514</v>
+        <v>200794.2100813054</v>
       </c>
       <c r="AE7" t="n">
-        <v>232862.9466445573</v>
+        <v>274735.4966484687</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.852366134802979e-06</v>
+        <v>6.587116773602604e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.345052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>210638.8338420663</v>
+        <v>248515.1264421107</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.2446272894392</v>
+        <v>172.7963411564278</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.8888862136141</v>
+        <v>236.4275772066679</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.5752802311842</v>
+        <v>213.8632610663205</v>
       </c>
       <c r="AD2" t="n">
-        <v>140244.6272894392</v>
+        <v>172796.3411564277</v>
       </c>
       <c r="AE2" t="n">
-        <v>191888.8862136141</v>
+        <v>236427.5772066679</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.419295429660213e-06</v>
+        <v>7.329125000621511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.738715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>173575.2802311842</v>
+        <v>213863.2610663205</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.2536226246494</v>
+        <v>236.6812576703948</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.6275969243512</v>
+        <v>323.8377383846374</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.6084017092064</v>
+        <v>292.9311191424242</v>
       </c>
       <c r="AD2" t="n">
-        <v>199253.6226246494</v>
+        <v>236681.2576703948</v>
       </c>
       <c r="AE2" t="n">
-        <v>272627.5969243512</v>
+        <v>323837.7383846374</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.355457025330018e-06</v>
+        <v>6.182203193611403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.759982638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>246608.4017092064</v>
+        <v>292931.1191424242</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.095701568883</v>
+        <v>171.2304334941208</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.7898518232672</v>
+        <v>234.2850332601301</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.1039431580929</v>
+        <v>211.9251985069604</v>
       </c>
       <c r="AD3" t="n">
-        <v>143095.701568883</v>
+        <v>171230.4334941208</v>
       </c>
       <c r="AE3" t="n">
-        <v>195789.8518232672</v>
+        <v>234285.0332601301</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.073557854491001e-06</v>
+        <v>7.505255524742777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.568576388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>177103.9431580929</v>
+        <v>211925.1985069604</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.2999087587239</v>
+        <v>171.4346406839617</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.0692571093927</v>
+        <v>234.5644385462556</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.3566823958585</v>
+        <v>212.177937744726</v>
       </c>
       <c r="AD4" t="n">
-        <v>143299.9087587239</v>
+        <v>171434.6406839617</v>
       </c>
       <c r="AE4" t="n">
-        <v>196069.2571093927</v>
+        <v>234564.4385462556</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.083590990802959e-06</v>
+        <v>7.523740901513061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.553385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>177356.6823958585</v>
+        <v>212177.937744726</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.2051301069347</v>
+        <v>307.0601870705443</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.9700913875624</v>
+        <v>420.1332944893065</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.9469809112907</v>
+        <v>380.0363625240285</v>
       </c>
       <c r="AD2" t="n">
-        <v>268205.1301069348</v>
+        <v>307060.1870705443</v>
       </c>
       <c r="AE2" t="n">
-        <v>366970.0913875625</v>
+        <v>420133.2944893065</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.862810665139552e-06</v>
+        <v>5.114202330271858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.628038194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>331946.9809112907</v>
+        <v>380036.3625240285</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.6636275747941</v>
+        <v>198.8049202975008</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.1412602787097</v>
+        <v>272.0136626049972</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.9860242100817</v>
+        <v>246.0530604196292</v>
       </c>
       <c r="AD3" t="n">
-        <v>169663.6275747941</v>
+        <v>198804.9202975008</v>
       </c>
       <c r="AE3" t="n">
-        <v>232141.2602787097</v>
+        <v>272013.6626049972</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.757344664404626e-06</v>
+        <v>6.712222038405731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.811631944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>209986.0242100817</v>
+        <v>246053.0604196292</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.847950831798</v>
+        <v>180.8186513539126</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.7650653867679</v>
+        <v>247.4040559382086</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.9362591464147</v>
+        <v>223.7921600733112</v>
       </c>
       <c r="AD4" t="n">
-        <v>151847.950831798</v>
+        <v>180818.6513539126</v>
       </c>
       <c r="AE4" t="n">
-        <v>207765.0653867679</v>
+        <v>247404.0559382086</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.018460044392574e-06</v>
+        <v>7.178685609002738e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.434027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>187936.2591464147</v>
+        <v>223792.1600733112</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.4068636121845</v>
+        <v>181.377564134299</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.5297945103839</v>
+        <v>248.1687850618245</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.6280035957771</v>
+        <v>224.4839045226735</v>
       </c>
       <c r="AD5" t="n">
-        <v>152406.8636121844</v>
+        <v>181377.564134299</v>
       </c>
       <c r="AE5" t="n">
-        <v>208529.7945103839</v>
+        <v>248168.7850618245</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.017856309409944e-06</v>
+        <v>7.177607080515809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.434027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>188628.0035957771</v>
+        <v>224483.9045226735</v>
       </c>
     </row>
   </sheetData>
